--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Weekly_Cost_Report.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Weekly_Cost_Report.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Week Ending 2024-09-27" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Week Ending 2024-09-27" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +518,614 @@
         <v>463710</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14871</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32329</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23763</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20616</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48499</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>23999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21442</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30210</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>43366</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35499</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>24392</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17409</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2854</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40776</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10971</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4247</v>
+      </c>
+      <c r="C12" t="n">
+        <v>43496</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>36950</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31876</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>32559</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9102</v>
+      </c>
+      <c r="D14" t="n">
+        <v>33132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C15" t="n">
+        <v>28528</v>
+      </c>
+      <c r="D15" t="n">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18208</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33634</v>
+      </c>
+      <c r="D16" t="n">
+        <v>48053</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24239</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5050</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>24888</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9049</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37425</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24985</v>
+      </c>
+      <c r="C19" t="n">
+        <v>42223</v>
+      </c>
+      <c r="D19" t="n">
+        <v>32543</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>39259</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2336</v>
+      </c>
+      <c r="D20" t="n">
+        <v>42544</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>37533</v>
+      </c>
+      <c r="C21" t="n">
+        <v>40225</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2337</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34170</v>
+      </c>
+      <c r="D22" t="n">
+        <v>40986</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1254</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15738</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18765</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>22926</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27819</v>
+      </c>
+      <c r="D24" t="n">
+        <v>32850</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>17335</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1488</v>
+      </c>
+      <c r="D25" t="n">
+        <v>35479</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>27063</v>
+      </c>
+      <c r="C26" t="n">
+        <v>29036</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11807</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>35438</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8877</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>30903</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4411</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4151</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28960</v>
+      </c>
+      <c r="D29" t="n">
+        <v>43105</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>31379</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29930</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24450</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>31251</v>
+      </c>
+      <c r="C31" t="n">
+        <v>44142</v>
+      </c>
+      <c r="D31" t="n">
+        <v>22934</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>28199</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21321</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>20623</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5010</v>
+      </c>
+      <c r="D33" t="n">
+        <v>36212</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>23079</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31566</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10686</v>
+      </c>
+      <c r="C35" t="n">
+        <v>16778</v>
+      </c>
+      <c r="D35" t="n">
+        <v>32018</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>42809</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10481</v>
+      </c>
+      <c r="D36" t="n">
+        <v>37852</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>37912</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25572</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11706</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>37883</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7990</v>
+      </c>
+      <c r="D38" t="n">
+        <v>41148</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>24563</v>
+      </c>
+      <c r="C39" t="n">
+        <v>41704</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>12813</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6847</v>
+      </c>
+      <c r="D40" t="n">
+        <v>13396</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3158</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39127</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20556</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>26917</v>
+      </c>
+      <c r="C42" t="n">
+        <v>27981</v>
+      </c>
+      <c r="D42" t="n">
+        <v>39629</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>31135</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10620</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32940</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
